--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\SF_Homework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53531FAB-6D09-4E33-9957-0F53B72E245D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B231ACA-6042-4EF1-B228-7980CAB0ED04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="6495" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="4695" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,6 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -775,6 +774,7 @@
       <c r="E2" t="s">
         <v>40</v>
       </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
